--- a/Scraping Feasibility analysis.xlsx
+++ b/Scraping Feasibility analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeswa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SrimathiP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F93465-1336-4CD3-8ECD-77BB571D9EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C7ED4A-36CA-4647-A337-574B05150B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{9293A5F0-AEBF-4395-AEF7-AF70B9C24D95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9293A5F0-AEBF-4395-AEF7-AF70B9C24D95}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="132">
   <si>
     <t>Project Overview</t>
   </si>
@@ -378,45 +378,12 @@
     <t>Srimathi</t>
   </si>
   <si>
-    <t>Selenium</t>
-  </si>
-  <si>
-    <t>0.1 (approx 6 mins)</t>
-  </si>
-  <si>
-    <t>0.1(approx 5 to 6 mins)</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
-    <t>https://www.invicta-art.com(https://www.invicta-insurance.be/)</t>
-  </si>
-  <si>
-    <t>https://www.declercq-verstichel.be (https://www.hillewaere-verzekeringen.be/)</t>
-  </si>
-  <si>
-    <t>0.4s</t>
-  </si>
-  <si>
-    <t>44.63s</t>
-  </si>
-  <si>
     <t>3s</t>
   </si>
   <si>
-    <t>297s( 216s)</t>
-  </si>
-  <si>
-    <t>Total pages/links</t>
-  </si>
-  <si>
-    <t>79s(400s)</t>
-  </si>
-  <si>
-    <t>1s(3s)</t>
-  </si>
-  <si>
     <t>67s</t>
   </si>
   <si>
@@ -426,31 +393,71 @@
     <t>Javascript rendered webpage</t>
   </si>
   <si>
-    <t>278s</t>
-  </si>
-  <si>
-    <t>42000 lines of data</t>
-  </si>
-  <si>
-    <t>195 lines of data</t>
-  </si>
-  <si>
-    <t>14 hrs</t>
-  </si>
-  <si>
-    <t>700 lines of data</t>
-  </si>
-  <si>
-    <t>255 lines of data</t>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Aquilae</t>
+  </si>
+  <si>
+    <t>Hillewaere Insurance</t>
+  </si>
+  <si>
+    <t>Kris De Ridder - Insurance Broker</t>
+  </si>
+  <si>
+    <t>Invicta Insurance</t>
+  </si>
+  <si>
+    <t>reCAPTCHA</t>
+  </si>
+  <si>
+    <t>Cookies pop up, reCAPTCHA,cloudfare</t>
+  </si>
+  <si>
+    <t>Cookies pop up</t>
+  </si>
+  <si>
+    <t>257s</t>
+  </si>
+  <si>
+    <t>Playwright</t>
+  </si>
+  <si>
+    <t>57s</t>
+  </si>
+  <si>
+    <t>https://www.invicta-art.com</t>
+  </si>
+  <si>
+    <t>https://www.declercq-verstichel.be</t>
+  </si>
+  <si>
+    <t>297s</t>
+  </si>
+  <si>
+    <t>0.7s</t>
+  </si>
+  <si>
+    <t>90s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -628,16 +635,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF0A1C4A"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1009,160 +1015,161 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1612,22 +1619,22 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.08984375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="15.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.26953125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" style="1" customWidth="1"/>
-    <col min="11" max="15" width="15.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="15.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" style="1" customWidth="1"/>
+    <col min="11" max="15" width="15.77734375" style="1" customWidth="1"/>
     <col min="16" max="16" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="1"/>
+    <col min="17" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1645,12 +1652,12 @@
       <c r="O2" s="34"/>
       <c r="P2" s="34"/>
     </row>
-    <row r="3" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -1668,7 +1675,7 @@
       <c r="O4" s="34"/>
       <c r="P4" s="34"/>
     </row>
-    <row r="5" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
         <v>1</v>
@@ -1690,7 +1697,7 @@
       <c r="O5" s="34"/>
       <c r="P5" s="34"/>
     </row>
-    <row r="6" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
         <v>3</v>
@@ -1712,7 +1719,7 @@
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="7" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
         <v>5</v>
@@ -1734,7 +1741,7 @@
       <c r="O7" s="34"/>
       <c r="P7" s="34"/>
     </row>
-    <row r="8" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
         <v>7</v>
@@ -1756,7 +1763,7 @@
       <c r="O8" s="34"/>
       <c r="P8" s="34"/>
     </row>
-    <row r="9" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -1774,7 +1781,7 @@
       <c r="O9" s="34"/>
       <c r="P9" s="34"/>
     </row>
-    <row r="10" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -1794,7 +1801,7 @@
       <c r="O10" s="34"/>
       <c r="P10" s="34"/>
     </row>
-    <row r="11" spans="1:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -1812,7 +1819,7 @@
       <c r="O11" s="34"/>
       <c r="P11" s="34"/>
     </row>
-    <row r="12" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
         <v>10</v>
@@ -1834,7 +1841,7 @@
       <c r="O12" s="34"/>
       <c r="P12" s="34"/>
     </row>
-    <row r="13" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
         <v>11</v>
@@ -1854,7 +1861,7 @@
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
         <v>12</v>
@@ -1874,7 +1881,7 @@
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
     </row>
-    <row r="15" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -1892,7 +1899,7 @@
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -1912,7 +1919,7 @@
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -1930,7 +1937,7 @@
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
     </row>
-    <row r="18" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="13" t="s">
         <v>14</v>
@@ -1952,7 +1959,7 @@
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="13" t="s">
         <v>16</v>
@@ -1972,7 +1979,7 @@
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
     </row>
-    <row r="20" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="13" t="s">
         <v>17</v>
@@ -1994,7 +2001,7 @@
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
     </row>
-    <row r="21" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
         <v>18</v>
@@ -2014,7 +2021,7 @@
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
     </row>
-    <row r="22" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
         <v>19</v>
@@ -2034,7 +2041,7 @@
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
     </row>
-    <row r="23" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
         <v>20</v>
@@ -2056,7 +2063,7 @@
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
     </row>
-    <row r="24" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
         <v>21</v>
@@ -2078,7 +2085,7 @@
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13" t="s">
         <v>22</v>
@@ -2098,7 +2105,7 @@
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
     </row>
-    <row r="26" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -2116,7 +2123,7 @@
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
     </row>
-    <row r="27" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="17" t="s">
         <v>23</v>
@@ -2136,22 +2143,22 @@
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="19">
         <f>COUNT('Web Scraping Feasibility'!B8:B12)</f>
         <v>5</v>
       </c>
       <c r="C28" s="19">
-        <f>COUNTIF('Web Scraping Feasibility'!R8:R12, "Easy")</f>
+        <f>COUNTIF('Web Scraping Feasibility'!Q8:Q12, "Easy")</f>
         <v>2</v>
       </c>
       <c r="D28" s="19">
-        <f>COUNTIF('Web Scraping Feasibility'!R8:R12, "Moderate")</f>
+        <f>COUNTIF('Web Scraping Feasibility'!Q8:Q12, "Moderate")</f>
         <v>1</v>
       </c>
       <c r="E28" s="19">
-        <f>COUNTIF('Web Scraping Feasibility'!R8:R12, "Hard")</f>
+        <f>COUNTIF('Web Scraping Feasibility'!Q8:Q12, "Hard")</f>
         <v>2</v>
       </c>
       <c r="F28" s="12"/>
@@ -2166,7 +2173,7 @@
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -2184,7 +2191,7 @@
       <c r="O32" s="34"/>
       <c r="P32" s="34"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
@@ -2192,13 +2199,13 @@
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="34"/>
       <c r="C34" s="44"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
     </row>
-    <row r="35" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="40" t="s">
         <v>28</v>
       </c>
@@ -2206,7 +2213,7 @@
       <c r="D35" s="41"/>
       <c r="E35" s="34"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="34" t="s">
         <v>29</v>
       </c>
@@ -2216,13 +2223,13 @@
       <c r="D36" s="41"/>
       <c r="E36" s="34"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="34"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>31</v>
       </c>
@@ -2230,7 +2237,7 @@
       <c r="D39" s="34"/>
       <c r="E39" s="34"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="34"/>
       <c r="C40" s="42" t="s">
         <v>32</v>
@@ -2242,37 +2249,37 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="34"/>
       <c r="C41" s="45"/>
       <c r="D41" s="46"/>
       <c r="E41" s="34"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="34"/>
       <c r="C42" s="45"/>
       <c r="D42" s="46"/>
       <c r="E42" s="34"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="34"/>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
       <c r="E43" s="34"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="34"/>
       <c r="C44" s="41"/>
       <c r="D44" s="46"/>
       <c r="E44" s="34"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="34"/>
       <c r="C45" s="45"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>103</v>
       </c>
@@ -2280,7 +2287,7 @@
       <c r="D48" s="34"/>
       <c r="E48" s="34"/>
     </row>
-    <row r="49" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="55" t="s">
         <v>80</v>
       </c>
@@ -2288,7 +2295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="55" t="s">
         <v>81</v>
       </c>
@@ -2296,17 +2303,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="55" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="43"/>
     </row>
   </sheetData>
@@ -2322,38 +2329,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB2C782-2303-414A-B12B-FF8717ED39A2}">
-  <dimension ref="A2:W39"/>
+  <dimension ref="A2:V39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="108" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="U8" sqref="U8"/>
+      <selection pane="topRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="21" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.08984375" style="1" customWidth="1"/>
-    <col min="11" max="12" width="15.7265625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.54296875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="23.7265625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="29.54296875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.7265625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="35.26953125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.7265625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="31.26953125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="70.81640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="1.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="26.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5546875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="23.77734375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="29.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="35.21875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="31.21875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="70.77734375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -2376,9 +2383,8 @@
       <c r="T2" s="34"/>
       <c r="U2" s="34"/>
       <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-    </row>
-    <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
         <v>35</v>
@@ -2402,10 +2408,9 @@
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="34"/>
-    </row>
-    <row r="4" spans="1:23" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="34"/>
+    </row>
+    <row r="4" spans="1:22" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="24"/>
       <c r="C4" s="20"/>
@@ -2427,10 +2432,9 @@
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="44"/>
-    </row>
-    <row r="5" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="V4" s="44"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
       <c r="B5" s="6" t="s">
         <v>36</v>
@@ -2457,9 +2461,8 @@
       <c r="T5" s="34"/>
       <c r="U5" s="34"/>
       <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="17" t="s">
         <v>38</v>
@@ -2483,50 +2486,47 @@
         <v>44</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="U7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="V7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="W7" s="34"/>
-    </row>
-    <row r="8" spans="1:23" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V7" s="34"/>
+    </row>
+    <row r="8" spans="1:22" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="47">
         <v>1</v>
@@ -2534,7 +2534,7 @@
       <c r="C8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="52" t="s">
         <v>106</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -2544,58 +2544,53 @@
         <v>56</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="28" t="s">
+      <c r="K8" s="53"/>
+      <c r="L8" s="28" t="s">
         <v>58</v>
       </c>
+      <c r="M8" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="N8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="S8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="U8" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="V8" s="10"/>
-      <c r="W8" s="34"/>
-    </row>
-    <row r="9" spans="1:23" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T8" s="51"/>
+      <c r="U8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8" s="34"/>
+    </row>
+    <row r="9" spans="1:22" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="48">
         <v>2</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>107</v>
@@ -2610,58 +2605,55 @@
         <v>74</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="3">
-        <v>200</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="S9" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="U9" s="54" t="s">
+      <c r="T9" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="34"/>
-    </row>
-    <row r="10" spans="1:23" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="10"/>
+      <c r="V9" s="34"/>
+    </row>
+    <row r="10" spans="1:22" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
       <c r="B10" s="48">
         <v>3</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>115</v>
+      <c r="C10" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>128</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>101</v>
@@ -2673,49 +2665,52 @@
         <v>74</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="J10" s="3" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="Q10" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="S10" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="34"/>
-    </row>
-    <row r="11" spans="1:23" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T10" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" s="10"/>
+      <c r="V10" s="34"/>
+    </row>
+    <row r="11" spans="1:22" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="48">
         <v>4</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>108</v>
@@ -2727,61 +2722,58 @@
         <v>56</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="3">
-        <v>3</v>
+      <c r="I11" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="S11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="W11" s="34"/>
-    </row>
-    <row r="12" spans="1:23" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="9"/>
+      <c r="U11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="V11" s="34"/>
+    </row>
+    <row r="12" spans="1:22" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="49">
         <v>5</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>127</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>101</v>
@@ -2793,47 +2785,54 @@
         <v>74</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="33">
-        <v>16</v>
-      </c>
-      <c r="J12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="L12" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="P12" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="R12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S12" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="S12" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="T12" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="U12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="V12" s="10"/>
-      <c r="W12" s="34"/>
-    </row>
-    <row r="19" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="U12" s="10"/>
+      <c r="V12" s="34"/>
+    </row>
+    <row r="17" spans="3:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="52"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+    </row>
+    <row r="18" spans="3:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="64"/>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -2854,9 +2853,8 @@
       <c r="T19" s="34"/>
       <c r="U19" s="34"/>
       <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-    </row>
-    <row r="20" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:22" ht="15" x14ac:dyDescent="0.2">
       <c r="C20" s="34"/>
       <c r="D20" s="2"/>
       <c r="E20" s="34"/>
@@ -2877,9 +2875,8 @@
       <c r="T20" s="34"/>
       <c r="U20" s="34"/>
       <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-    </row>
-    <row r="21" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
@@ -2900,9 +2897,8 @@
       <c r="T21" s="34"/>
       <c r="U21" s="34"/>
       <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-    </row>
-    <row r="22" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
@@ -2923,9 +2919,8 @@
       <c r="T22" s="34"/>
       <c r="U22" s="34"/>
       <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-    </row>
-    <row r="23" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
@@ -2946,9 +2941,8 @@
       <c r="T23" s="34"/>
       <c r="U23" s="34"/>
       <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-    </row>
-    <row r="24" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
@@ -2969,9 +2963,8 @@
       <c r="T24" s="34"/>
       <c r="U24" s="34"/>
       <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-    </row>
-    <row r="25" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -2992,9 +2985,8 @@
       <c r="T25" s="34"/>
       <c r="U25" s="34"/>
       <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-    </row>
-    <row r="26" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
@@ -3015,9 +3007,8 @@
       <c r="T26" s="34"/>
       <c r="U26" s="34"/>
       <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-    </row>
-    <row r="27" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
@@ -3038,9 +3029,8 @@
       <c r="T27" s="34"/>
       <c r="U27" s="34"/>
       <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-    </row>
-    <row r="28" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -3061,9 +3051,8 @@
       <c r="T28" s="34"/>
       <c r="U28" s="34"/>
       <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-    </row>
-    <row r="29" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
@@ -3084,9 +3073,8 @@
       <c r="T29" s="34"/>
       <c r="U29" s="34"/>
       <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-    </row>
-    <row r="30" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
@@ -3107,9 +3095,8 @@
       <c r="T30" s="34"/>
       <c r="U30" s="34"/>
       <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-    </row>
-    <row r="31" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -3130,9 +3117,8 @@
       <c r="T31" s="34"/>
       <c r="U31" s="34"/>
       <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-    </row>
-    <row r="32" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -3153,9 +3139,8 @@
       <c r="T32" s="34"/>
       <c r="U32" s="34"/>
       <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-    </row>
-    <row r="33" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
@@ -3176,9 +3161,8 @@
       <c r="T33" s="34"/>
       <c r="U33" s="34"/>
       <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-    </row>
-    <row r="34" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
@@ -3199,9 +3183,8 @@
       <c r="T34" s="34"/>
       <c r="U34" s="34"/>
       <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-    </row>
-    <row r="35" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34"/>
@@ -3222,9 +3205,8 @@
       <c r="T35" s="34"/>
       <c r="U35" s="34"/>
       <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-    </row>
-    <row r="36" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="34"/>
@@ -3245,9 +3227,8 @@
       <c r="T36" s="34"/>
       <c r="U36" s="34"/>
       <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-    </row>
-    <row r="37" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="34"/>
@@ -3268,9 +3249,8 @@
       <c r="T37" s="34"/>
       <c r="U37" s="34"/>
       <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-    </row>
-    <row r="38" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
       <c r="E38" s="34"/>
@@ -3291,9 +3271,8 @@
       <c r="T38" s="34"/>
       <c r="U38" s="34"/>
       <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-    </row>
-    <row r="39" spans="3:23" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
       <c r="E39" s="34"/>
@@ -3314,10 +3293,9 @@
       <c r="T39" s="34"/>
       <c r="U39" s="34"/>
       <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R8:R12">
+  <conditionalFormatting sqref="Q8:Q12">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3348,18 +3326,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8:R12" xr:uid="{0E190490-BE1A-4D95-8D60-0F0E895E1A11}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8:Q12" xr:uid="{0E190490-BE1A-4D95-8D60-0F0E895E1A11}">
       <formula1>difficultylevel</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{275EDCD4-B186-4C4D-8DAC-ACD479EBA573}"/>
-    <hyperlink ref="D10" r:id="rId2" display="https://www.declercq-verstichel.be()" xr:uid="{7AD2A181-FDE4-4C9E-AB56-E299E79D5944}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{7AD2A181-FDE4-4C9E-AB56-E299E79D5944}"/>
     <hyperlink ref="D12" r:id="rId3" xr:uid="{E5FC24CD-4058-47C7-A11B-13C28B4C16A6}"/>
+    <hyperlink ref="D11" r:id="rId4" xr:uid="{C2F1B731-0F03-435D-AD03-0F6532522423}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{C47051DE-9EC4-4678-91A8-691197F454BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3371,23 +3351,23 @@
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.26953125" style="1" customWidth="1"/>
-    <col min="10" max="14" width="15.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" style="1" customWidth="1"/>
+    <col min="10" max="14" width="15.77734375" style="1" customWidth="1"/>
     <col min="15" max="15" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="1"/>
+    <col min="16" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3403,7 +3383,7 @@
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
     </row>
-    <row r="3" spans="2:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>61</v>
       </c>
@@ -3421,7 +3401,7 @@
       <c r="N3" s="50"/>
       <c r="O3" s="50"/>
     </row>
-    <row r="4" spans="2:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -3437,7 +3417,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="44"/>
     </row>
-    <row r="5" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>36</v>
       </c>
@@ -3457,7 +3437,7 @@
       <c r="N5" s="34"/>
       <c r="O5" s="34"/>
     </row>
-    <row r="7" spans="2:15" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B7" s="39" t="s">
         <v>38</v>
       </c>
@@ -3476,11 +3456,11 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:15" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="71">
+    <row r="8" spans="2:15" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="68">
         <v>1</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="65" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -3495,9 +3475,9 @@
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:15" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="62"/>
-      <c r="C9" s="65"/>
+    <row r="9" spans="2:15" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="69"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="56" t="s">
         <v>91</v>
       </c>
@@ -3510,9 +3490,9 @@
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
     </row>
-    <row r="10" spans="2:15" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="62"/>
-      <c r="C10" s="65"/>
+    <row r="10" spans="2:15" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="69"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="56" t="s">
         <v>92</v>
       </c>
@@ -3525,9 +3505,9 @@
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
     </row>
-    <row r="11" spans="2:15" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="62"/>
-      <c r="C11" s="65"/>
+    <row r="11" spans="2:15" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="69"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="56" t="s">
         <v>93</v>
       </c>
@@ -3540,9 +3520,9 @@
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
     </row>
-    <row r="12" spans="2:15" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="62"/>
-      <c r="C12" s="65"/>
+    <row r="12" spans="2:15" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="69"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="56" t="s">
         <v>86</v>
       </c>
@@ -3555,9 +3535,9 @@
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
     </row>
-    <row r="13" spans="2:15" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="62"/>
-      <c r="C13" s="65"/>
+    <row r="13" spans="2:15" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="69"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="56" t="s">
         <v>90</v>
       </c>
@@ -3570,9 +3550,9 @@
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
     </row>
-    <row r="14" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="62"/>
-      <c r="C14" s="65"/>
+    <row r="14" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="69"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="38" t="s">
         <v>94</v>
       </c>
@@ -3585,9 +3565,9 @@
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
     </row>
-    <row r="15" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="62"/>
-      <c r="C15" s="65"/>
+    <row r="15" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="69"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="56" t="s">
         <v>95</v>
       </c>
@@ -3600,9 +3580,9 @@
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="63"/>
-      <c r="C16" s="66"/>
+    <row r="16" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16" s="70"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="58" t="s">
         <v>96</v>
       </c>
@@ -3615,11 +3595,11 @@
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
     </row>
-    <row r="17" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="61">
+    <row r="17" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B17" s="71">
         <v>2</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="72" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="37" t="s">
@@ -3634,9 +3614,9 @@
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
     </row>
-    <row r="18" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="62"/>
-      <c r="C18" s="65"/>
+    <row r="18" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B18" s="69"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="59" t="s">
         <v>96</v>
       </c>
@@ -3649,9 +3629,9 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="62"/>
-      <c r="C19" s="65"/>
+    <row r="19" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B19" s="69"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="37" t="s">
         <v>86</v>
       </c>
@@ -3664,9 +3644,9 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="65"/>
+    <row r="20" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B20" s="69"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="38" t="s">
         <v>87</v>
       </c>
@@ -3679,9 +3659,9 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="65"/>
+    <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21" s="69"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="38" t="s">
         <v>94</v>
       </c>
@@ -3694,9 +3674,9 @@
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
     </row>
-    <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="65"/>
+    <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="69"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="38" t="s">
         <v>97</v>
       </c>
@@ -3709,9 +3689,9 @@
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
     </row>
-    <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="62"/>
-      <c r="C23" s="65"/>
+    <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B23" s="69"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="56" t="s">
         <v>90</v>
       </c>
@@ -3724,9 +3704,9 @@
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
     </row>
-    <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="63"/>
-      <c r="C24" s="66"/>
+    <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B24" s="70"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="57" t="s">
         <v>93</v>
       </c>
@@ -3739,11 +3719,11 @@
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
     </row>
-    <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="61">
+    <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B25" s="71">
         <v>3</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="72" t="s">
         <v>69</v>
       </c>
       <c r="D25" s="37" t="s">
@@ -3758,9 +3738,9 @@
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
     </row>
-    <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="65"/>
+    <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B26" s="69"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="59" t="s">
         <v>96</v>
       </c>
@@ -3773,9 +3753,9 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
-      <c r="C27" s="65"/>
+    <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B27" s="69"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="37" t="s">
         <v>86</v>
       </c>
@@ -3788,9 +3768,9 @@
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
     </row>
-    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="62"/>
-      <c r="C28" s="65"/>
+    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B28" s="69"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="37" t="s">
         <v>89</v>
       </c>
@@ -3803,9 +3783,9 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
     </row>
-    <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="62"/>
-      <c r="C29" s="65"/>
+    <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B29" s="69"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="56" t="s">
         <v>99</v>
       </c>
@@ -3818,252 +3798,252 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="65"/>
+    <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="69"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="38" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="65"/>
+    <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B31" s="69"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="38" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="65"/>
+    <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="69"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="62"/>
-      <c r="C33" s="65"/>
+    <row r="33" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B33" s="69"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="63"/>
-      <c r="C34" s="66"/>
+    <row r="34" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="70"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="57" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="61">
+    <row r="35" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35" s="71">
         <v>4</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="73" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="60" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="62"/>
-      <c r="C36" s="68"/>
+    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="69"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="62"/>
-      <c r="C37" s="68"/>
+    <row r="37" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B37" s="69"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="62"/>
-      <c r="C38" s="68"/>
+    <row r="38" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38" s="69"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="62"/>
-      <c r="C39" s="68"/>
+    <row r="39" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="69"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="56" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="62"/>
-      <c r="C40" s="68"/>
+    <row r="40" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40" s="69"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="38" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="62"/>
-      <c r="C41" s="68"/>
+    <row r="41" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B41" s="69"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="62"/>
-      <c r="C42" s="68"/>
+    <row r="42" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B42" s="69"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="63"/>
-      <c r="C43" s="69"/>
+    <row r="43" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B43" s="70"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="57" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="61">
+    <row r="44" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B44" s="71">
         <v>5</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="72" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="62"/>
-      <c r="C45" s="65"/>
+    <row r="45" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B45" s="69"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="56" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="62"/>
-      <c r="C46" s="65"/>
+    <row r="46" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B46" s="69"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="62"/>
-      <c r="C47" s="65"/>
+    <row r="47" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47" s="69"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="38" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="62"/>
-      <c r="C48" s="65"/>
+    <row r="48" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B48" s="69"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="62"/>
-      <c r="C49" s="65"/>
+    <row r="49" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B49" s="69"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="62"/>
-      <c r="C50" s="65"/>
+    <row r="50" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B50" s="69"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="38" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="63"/>
-      <c r="C51" s="66"/>
+    <row r="51" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B51" s="70"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="61">
+    <row r="52" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B52" s="71">
         <v>6</v>
       </c>
-      <c r="C52" s="64" t="s">
+      <c r="C52" s="72" t="s">
         <v>73</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="62"/>
-      <c r="C53" s="65"/>
+    <row r="53" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B53" s="69"/>
+      <c r="C53" s="66"/>
       <c r="D53" s="56" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="62"/>
-      <c r="C54" s="65"/>
+    <row r="54" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B54" s="69"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="62"/>
-      <c r="C55" s="65"/>
+    <row r="55" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B55" s="69"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="62"/>
-      <c r="C56" s="65"/>
+    <row r="56" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B56" s="69"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="56" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="62"/>
-      <c r="C57" s="65"/>
+    <row r="57" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B57" s="69"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="62"/>
-      <c r="C58" s="65"/>
+    <row r="58" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B58" s="69"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="62"/>
-      <c r="C59" s="65"/>
+    <row r="59" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B59" s="69"/>
+      <c r="C59" s="66"/>
       <c r="D59" s="37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="62"/>
-      <c r="C60" s="65"/>
+    <row r="60" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B60" s="69"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="38" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="62"/>
-      <c r="C61" s="65"/>
+    <row r="61" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B61" s="69"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="62"/>
-      <c r="C62" s="65"/>
+    <row r="62" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B62" s="69"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="63"/>
-      <c r="C63" s="66"/>
+    <row r="63" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B63" s="70"/>
+      <c r="C63" s="67"/>
       <c r="D63" s="57" t="s">
         <v>93</v>
       </c>
@@ -4097,9 +4077,9 @@
       <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -4107,7 +4087,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4115,7 +4095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -4123,7 +4103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>67</v>
       </c>
